--- a/data/case1/15/P_device_14.xlsx
+++ b/data/case1/15/P_device_14.xlsx
@@ -62,42 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.060022749987677919</v>
+        <v>0.011893758099813892</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.060022751693913787</v>
+        <v>-0.011893758494125155</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.018507520733243698</v>
+        <v>0.025113678923829024</v>
       </c>
       <c r="B2" s="0">
-        <v>0.018507518983715596</v>
+        <v>-0.02511367932214029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.025092331057060411</v>
+        <v>-0.061676827389066269</v>
       </c>
       <c r="B3" s="0">
-        <v>0.025092329269910948</v>
+        <v>0.061676826995805678</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.031215511646319895</v>
+        <v>-0.02495028971082076</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.031215513457851132</v>
+        <v>0.02495028931612113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.010024871677450259</v>
+        <v>0.053820653701090709</v>
       </c>
       <c r="B5" s="0">
-        <v>0.010024869853194064</v>
+        <v>-0.053820654087281032</v>
       </c>
     </row>
   </sheetData>
